--- a/resources/DatasetTemplate/subjects.xlsx
+++ b/resources/DatasetTemplate/subjects.xlsx
@@ -70,7 +70,7 @@
     <t xml:space="preserve">protocol title</t>
   </si>
   <si>
-    <t xml:space="preserve">protocol.io location</t>
+    <t xml:space="preserve">protocols.io location</t>
   </si>
   <si>
     <t xml:space="preserve">experimental log file name</t>

--- a/resources/DatasetTemplate/subjects.xlsx
+++ b/resources/DatasetTemplate/subjects.xlsx
@@ -55,7 +55,7 @@
     <t xml:space="preserve">age range (min)</t>
   </si>
   <si>
-    <t xml:space="preserve">age range (max) disease</t>
+    <t xml:space="preserve">age range (max)</t>
   </si>
   <si>
     <t xml:space="preserve">handedness</t>
@@ -501,7 +501,7 @@
   <dimension ref="A1:AMJ1000"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="topLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/resources/DatasetTemplate/subjects.xlsx
+++ b/resources/DatasetTemplate/subjects.xlsx
@@ -469,7 +469,9 @@
   <dimension ref="A1:AB998"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="L2" activeCellId="0" sqref="L2"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="1:1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>

--- a/resources/DatasetTemplate/subjects.xlsx
+++ b/resources/DatasetTemplate/subjects.xlsx
@@ -368,9 +368,9 @@
   <dimension ref="A1:AB1"/>
   <sheetViews>
     <sheetView showFormulas="0" showGridLines="1" showRowColHeaders="1" showZeros="1" rightToLeft="0" tabSelected="1" showOutlineSymbols="1" defaultGridColor="1" view="normal" topLeftCell="A1" colorId="64" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="topLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="bottomLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
+      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultColWidth="9.625" defaultRowHeight="15" zeroHeight="0" outlineLevelRow="0"/>
